--- a/Code/Results/Cases/Case_5_77/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_77/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.31423641877189</v>
+        <v>12.83636662940318</v>
       </c>
       <c r="C2">
-        <v>7.511928257693241</v>
+        <v>9.858893280965802</v>
       </c>
       <c r="D2">
-        <v>5.233091489902979</v>
+        <v>6.035034581594472</v>
       </c>
       <c r="E2">
-        <v>8.385929204311909</v>
+        <v>12.40552867458618</v>
       </c>
       <c r="F2">
-        <v>21.49350682432559</v>
+        <v>29.17808867001368</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.50164740302283</v>
+        <v>9.200439912298569</v>
       </c>
       <c r="L2">
-        <v>6.743130820524351</v>
+        <v>9.629963664221867</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.75862280209714</v>
+        <v>26.16319783465871</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.34324720818656</v>
+        <v>12.58634283144132</v>
       </c>
       <c r="C3">
-        <v>7.546977736890097</v>
+        <v>9.869088147762509</v>
       </c>
       <c r="D3">
-        <v>5.133476765151604</v>
+        <v>5.999392818380348</v>
       </c>
       <c r="E3">
-        <v>8.266472853933973</v>
+        <v>12.41836552109806</v>
       </c>
       <c r="F3">
-        <v>21.19973916569494</v>
+        <v>29.21694017154243</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.86263492933794</v>
+        <v>9.019088439655933</v>
       </c>
       <c r="L3">
-        <v>6.540097075991984</v>
+        <v>9.616304712339126</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.7449141586008</v>
+        <v>26.23728306690385</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.71207607137468</v>
+        <v>12.43274874063115</v>
       </c>
       <c r="C4">
-        <v>7.569684086065727</v>
+        <v>9.875864392212126</v>
       </c>
       <c r="D4">
-        <v>5.070927302089736</v>
+        <v>5.977044282430189</v>
       </c>
       <c r="E4">
-        <v>8.197695542806855</v>
+        <v>12.42856340197539</v>
       </c>
       <c r="F4">
-        <v>21.03643820174391</v>
+        <v>29.2479740551413</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.4505052861115</v>
+        <v>8.907323940884739</v>
       </c>
       <c r="L4">
-        <v>6.415762151178628</v>
+        <v>9.609573857461271</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.75099431876688</v>
+        <v>26.28812220415209</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.44601584634569</v>
+        <v>12.37022585299062</v>
       </c>
       <c r="C5">
-        <v>7.579234680891619</v>
+        <v>9.878756095433145</v>
       </c>
       <c r="D5">
-        <v>5.045106490991567</v>
+        <v>5.967822980052128</v>
       </c>
       <c r="E5">
-        <v>8.170821549148151</v>
+        <v>12.43330146478733</v>
       </c>
       <c r="F5">
-        <v>20.97413368303639</v>
+        <v>29.26242262540713</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.27764341583667</v>
+        <v>8.861736647058152</v>
       </c>
       <c r="L5">
-        <v>6.365245680455586</v>
+        <v>9.607249651937085</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.75698294230899</v>
+        <v>26.31018238476189</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.40130040733918</v>
+        <v>12.35985067408367</v>
       </c>
       <c r="C6">
-        <v>7.580838507862497</v>
+        <v>9.879244144952214</v>
       </c>
       <c r="D6">
-        <v>5.040799464984298</v>
+        <v>5.966284977222414</v>
       </c>
       <c r="E6">
-        <v>8.166428866871565</v>
+        <v>12.43412338432641</v>
       </c>
       <c r="F6">
-        <v>20.9640425045259</v>
+        <v>29.2649305295869</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.24864493650464</v>
+        <v>8.854166186231591</v>
       </c>
       <c r="L6">
-        <v>6.356868645436417</v>
+        <v>9.606889068266748</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.75818544580875</v>
+        <v>26.31392648501471</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.70852381005563</v>
+        <v>12.43190514288595</v>
       </c>
       <c r="C7">
-        <v>7.56981168454169</v>
+        <v>9.875902862456835</v>
       </c>
       <c r="D7">
-        <v>5.070580392251779</v>
+        <v>5.976920379149378</v>
       </c>
       <c r="E7">
-        <v>8.1973284374968</v>
+        <v>12.4286249434273</v>
       </c>
       <c r="F7">
-        <v>21.03558084337439</v>
+        <v>29.24816162209694</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.44819382653229</v>
+        <v>8.906709223536961</v>
       </c>
       <c r="L7">
-        <v>6.415080163989714</v>
+        <v>9.609540814374597</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.75106104639109</v>
+        <v>26.28841428200946</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.98666485442508</v>
+        <v>12.75022674738786</v>
       </c>
       <c r="C8">
-        <v>7.52376678200989</v>
+        <v>9.862301521174615</v>
       </c>
       <c r="D8">
-        <v>5.199041835948766</v>
+        <v>6.022843271790866</v>
       </c>
       <c r="E8">
-        <v>8.343795736454162</v>
+        <v>12.40947415838358</v>
       </c>
       <c r="F8">
-        <v>21.38864526688388</v>
+        <v>29.18999297856081</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.28544849066733</v>
+        <v>9.138032400014682</v>
       </c>
       <c r="L8">
-        <v>6.673096445013138</v>
+        <v>9.624911861240317</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.75080656153583</v>
+        <v>26.18763039704677</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.21815903806194</v>
+        <v>13.37008440802265</v>
       </c>
       <c r="C9">
-        <v>7.442917434761142</v>
+        <v>9.839708834549315</v>
       </c>
       <c r="D9">
-        <v>5.439264481628485</v>
+        <v>6.1090986815523</v>
       </c>
       <c r="E9">
-        <v>8.666963277371533</v>
+        <v>12.39029198177737</v>
       </c>
       <c r="F9">
-        <v>22.21814652242676</v>
+        <v>29.13299950006157</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.76876081971317</v>
+        <v>9.585746303022644</v>
       </c>
       <c r="L9">
-        <v>7.178885213977201</v>
+        <v>9.668080173699559</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.87127984039762</v>
+        <v>26.03255931855462</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.69372748446528</v>
+        <v>13.8180048508499</v>
       </c>
       <c r="C10">
-        <v>7.389337108665289</v>
+        <v>9.825571311995041</v>
       </c>
       <c r="D10">
-        <v>5.607776734774546</v>
+        <v>6.170004330189494</v>
       </c>
       <c r="E10">
-        <v>8.925771488309788</v>
+        <v>12.38738541562184</v>
       </c>
       <c r="F10">
-        <v>22.91273218088436</v>
+        <v>29.12603353050478</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.76067873763106</v>
+        <v>9.907714257184464</v>
       </c>
       <c r="L10">
-        <v>7.547016064056868</v>
+        <v>9.707570611229084</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.04152522909469</v>
+        <v>25.94472382462242</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.33023546023115</v>
+        <v>14.01919577135675</v>
       </c>
       <c r="C11">
-        <v>7.366243816292384</v>
+        <v>9.819668870438786</v>
       </c>
       <c r="D11">
-        <v>5.682546485976046</v>
+        <v>6.197145035164593</v>
       </c>
       <c r="E11">
-        <v>9.048013052696586</v>
+        <v>12.38848558316909</v>
       </c>
       <c r="F11">
-        <v>23.24735746602666</v>
+        <v>29.13045217163503</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.1906467189559</v>
+        <v>10.05201181297796</v>
       </c>
       <c r="L11">
-        <v>7.713140065576081</v>
+        <v>9.727183058447169</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.13838021292975</v>
+        <v>25.91045964479219</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.56633846421846</v>
+        <v>14.0949378373146</v>
       </c>
       <c r="C12">
-        <v>7.357685069270932</v>
+        <v>9.817509380484198</v>
       </c>
       <c r="D12">
-        <v>5.710576642031576</v>
+        <v>6.207338519019177</v>
       </c>
       <c r="E12">
-        <v>9.094938458752875</v>
+        <v>12.38924960489022</v>
       </c>
       <c r="F12">
-        <v>23.37675642107873</v>
+        <v>29.13321563444181</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.35041541569021</v>
+        <v>10.10629071537205</v>
       </c>
       <c r="L12">
-        <v>7.77581283473052</v>
+        <v>9.734842849165345</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.17797939681383</v>
+        <v>25.89830531072873</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.51570758711748</v>
+        <v>14.07864634749857</v>
       </c>
       <c r="C13">
-        <v>7.359520032801808</v>
+        <v>9.817971107694808</v>
       </c>
       <c r="D13">
-        <v>5.704552637051695</v>
+        <v>6.20514695471318</v>
       </c>
       <c r="E13">
-        <v>9.084804186074498</v>
+        <v>12.38906962471967</v>
       </c>
       <c r="F13">
-        <v>23.34876869522074</v>
+        <v>29.13257200826791</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.31614187245801</v>
+        <v>10.09461773837186</v>
       </c>
       <c r="L13">
-        <v>7.762326174331946</v>
+        <v>9.733182880733297</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.16931897745114</v>
+        <v>25.900886427631</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.34975818884049</v>
+        <v>14.02543644034156</v>
       </c>
       <c r="C14">
-        <v>7.365535939050502</v>
+        <v>9.819489694322774</v>
       </c>
       <c r="D14">
-        <v>5.684858291412028</v>
+        <v>6.197985360758771</v>
       </c>
       <c r="E14">
-        <v>9.051860977400104</v>
+        <v>12.38854148303577</v>
       </c>
       <c r="F14">
-        <v>23.257949415156</v>
+        <v>29.1306576817252</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.20385206548476</v>
+        <v>10.05648494053622</v>
       </c>
       <c r="L14">
-        <v>7.718301114965207</v>
+        <v>9.727808588578181</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.14157875372131</v>
+        <v>25.9094432392505</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.24746952431602</v>
+        <v>13.99278378964655</v>
       </c>
       <c r="C15">
-        <v>7.369245166643299</v>
+        <v>9.820429710714436</v>
       </c>
       <c r="D15">
-        <v>5.67275767243889</v>
+        <v>6.193587641825768</v>
       </c>
       <c r="E15">
-        <v>9.031764649160493</v>
+        <v>12.3882631935186</v>
       </c>
       <c r="F15">
-        <v>23.20266945661404</v>
+        <v>29.1296270401059</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.13467432694406</v>
+        <v>10.03307868520305</v>
       </c>
       <c r="L15">
-        <v>7.691302783051533</v>
+        <v>9.72454689739161</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.12497147748507</v>
+        <v>25.91479148279306</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.65143682951769</v>
+        <v>13.80479832256583</v>
       </c>
       <c r="C16">
-        <v>7.390872246387421</v>
+        <v>9.825967656502433</v>
       </c>
       <c r="D16">
-        <v>5.602851314372392</v>
+        <v>6.168219001733163</v>
       </c>
       <c r="E16">
-        <v>8.917872303702531</v>
+        <v>12.38736218720226</v>
       </c>
       <c r="F16">
-        <v>22.89123917643361</v>
+        <v>29.12589738847691</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.73215187131877</v>
+        <v>9.898235962035061</v>
       </c>
       <c r="L16">
-        <v>7.536128754854432</v>
+        <v>9.706321718239069</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.03559738733741</v>
+        <v>25.94707780981781</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.27693986368757</v>
+        <v>13.68876229890591</v>
       </c>
       <c r="C17">
-        <v>7.404469119044762</v>
+        <v>9.829500154551701</v>
       </c>
       <c r="D17">
-        <v>5.559473639660982</v>
+        <v>6.152509313564289</v>
       </c>
       <c r="E17">
-        <v>8.84914830370017</v>
+        <v>12.38742928499016</v>
       </c>
       <c r="F17">
-        <v>22.70496656748001</v>
+        <v>29.12555237403577</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.47977410145233</v>
+        <v>9.814921382407844</v>
       </c>
       <c r="L17">
-        <v>7.440559219114096</v>
+        <v>9.695560499610636</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.98583488878739</v>
+        <v>25.96834405177636</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.05826555657176</v>
+        <v>13.62178372926182</v>
       </c>
       <c r="C18">
-        <v>7.412410084962991</v>
+        <v>9.831581749868404</v>
       </c>
       <c r="D18">
-        <v>5.534346957169851</v>
+        <v>6.143420445675778</v>
       </c>
       <c r="E18">
-        <v>8.810045215655283</v>
+        <v>12.3876959514934</v>
       </c>
       <c r="F18">
-        <v>22.59958360053689</v>
+        <v>29.126068207269</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.33261103611053</v>
+        <v>9.766799947874876</v>
       </c>
       <c r="L18">
-        <v>7.3854660759678</v>
+        <v>9.689526309928615</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.95903207936386</v>
+        <v>25.98111153046122</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.98366197706169</v>
+        <v>13.59906746308127</v>
       </c>
       <c r="C19">
-        <v>7.415119382119071</v>
+        <v>9.832295107098227</v>
       </c>
       <c r="D19">
-        <v>5.525809484511518</v>
+        <v>6.140334081574568</v>
       </c>
       <c r="E19">
-        <v>8.796879006056869</v>
+        <v>12.38782543691008</v>
       </c>
       <c r="F19">
-        <v>22.56420426613361</v>
+        <v>29.12636554911616</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.28244023145722</v>
+        <v>9.750473948707242</v>
       </c>
       <c r="L19">
-        <v>7.366792560661829</v>
+        <v>9.687510041166867</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.95026551854053</v>
+        <v>25.98552631679534</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.31714403350248</v>
+        <v>13.70113969140317</v>
       </c>
       <c r="C20">
-        <v>7.403009233595072</v>
+        <v>9.829118963345872</v>
       </c>
       <c r="D20">
-        <v>5.564109676688219</v>
+        <v>6.154187149570886</v>
       </c>
       <c r="E20">
-        <v>8.856420187069226</v>
+        <v>12.38739854360723</v>
       </c>
       <c r="F20">
-        <v>22.72461383664179</v>
+        <v>29.12551517990302</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.50684732854007</v>
+        <v>9.82381155905215</v>
       </c>
       <c r="L20">
-        <v>7.450745925470717</v>
+        <v>9.696689996785421</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.99094294420869</v>
+        <v>25.9660247648184</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.39863477595705</v>
+        <v>14.04107812107484</v>
       </c>
       <c r="C21">
-        <v>7.363763851086083</v>
+        <v>9.819041599053712</v>
       </c>
       <c r="D21">
-        <v>5.690650783839388</v>
+        <v>6.200091199276782</v>
       </c>
       <c r="E21">
-        <v>9.061520059666345</v>
+        <v>12.38868719073213</v>
       </c>
       <c r="F21">
-        <v>23.28455241069602</v>
+        <v>29.13119038868037</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.23691701393131</v>
+        <v>10.06769572874912</v>
       </c>
       <c r="L21">
-        <v>7.731239016638789</v>
+        <v>9.729380858575448</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.14964638902466</v>
+        <v>25.90690760450057</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.07675535332704</v>
+        <v>14.26062459286737</v>
       </c>
       <c r="C22">
-        <v>7.339201082426647</v>
+        <v>9.812896142730164</v>
       </c>
       <c r="D22">
-        <v>5.771695303747645</v>
+        <v>6.229600615043426</v>
       </c>
       <c r="E22">
-        <v>9.199261442163859</v>
+        <v>12.39155381044264</v>
       </c>
       <c r="F22">
-        <v>23.66614609988439</v>
+        <v>29.14125309031472</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.69628530733563</v>
+        <v>10.2249478748012</v>
       </c>
       <c r="L22">
-        <v>7.913174091765271</v>
+        <v>9.752102189512163</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.2704603692349</v>
+        <v>25.87305605276004</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.71743286566845</v>
+        <v>14.14371213556313</v>
       </c>
       <c r="C23">
-        <v>7.352210548083769</v>
+        <v>9.816135897803173</v>
       </c>
       <c r="D23">
-        <v>5.728595677306583</v>
+        <v>6.213896769724679</v>
       </c>
       <c r="E23">
-        <v>9.125412180931749</v>
+        <v>12.38983896413577</v>
       </c>
       <c r="F23">
-        <v>23.46105135306943</v>
+        <v>29.1353015856689</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.45273411012622</v>
+        <v>10.14123157447197</v>
       </c>
       <c r="L23">
-        <v>7.816210689559725</v>
+        <v>9.739852706195693</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.20437319344813</v>
+        <v>25.89068477361488</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.29897823326138</v>
+        <v>13.69554470099804</v>
       </c>
       <c r="C24">
-        <v>7.403668861902292</v>
+        <v>9.82929114188345</v>
       </c>
       <c r="D24">
-        <v>5.562014309863113</v>
+        <v>6.153428777730584</v>
       </c>
       <c r="E24">
-        <v>8.853131299081141</v>
+        <v>12.38741173124351</v>
       </c>
       <c r="F24">
-        <v>22.71572598743255</v>
+        <v>29.12552977065055</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.4946139634671</v>
+        <v>9.81979300010665</v>
       </c>
       <c r="L24">
-        <v>7.44614097618946</v>
+        <v>9.696178875552166</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.98862797606659</v>
+        <v>25.96707162868305</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.64353785250816</v>
+        <v>13.20337514140248</v>
       </c>
       <c r="C25">
-        <v>7.463772649739525</v>
+        <v>9.845386682832444</v>
       </c>
       <c r="D25">
-        <v>5.375621586012541</v>
+        <v>6.086186615065092</v>
       </c>
       <c r="E25">
-        <v>8.575738576369133</v>
+        <v>12.3935150547932</v>
       </c>
       <c r="F25">
-        <v>21.97886360332693</v>
+        <v>29.14229270086278</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.3846299350134</v>
+        <v>9.465617528423079</v>
       </c>
       <c r="L25">
-        <v>7.042443458540197</v>
+        <v>9.655023561689372</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.82490434307786</v>
+        <v>26.069937481368</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_77/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_77/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.83636662940318</v>
+        <v>14.31423641877194</v>
       </c>
       <c r="C2">
-        <v>9.858893280965802</v>
+        <v>7.511928257692972</v>
       </c>
       <c r="D2">
-        <v>6.035034581594472</v>
+        <v>5.23309148990293</v>
       </c>
       <c r="E2">
-        <v>12.40552867458618</v>
+        <v>8.385929204311957</v>
       </c>
       <c r="F2">
-        <v>29.17808867001368</v>
+        <v>21.49350682432559</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.200439912298569</v>
+        <v>11.50164740302285</v>
       </c>
       <c r="L2">
-        <v>9.629963664221867</v>
+        <v>6.743130820524423</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.16319783465871</v>
+        <v>17.75862280209714</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.58634283144132</v>
+        <v>13.34324720818659</v>
       </c>
       <c r="C3">
-        <v>9.869088147762509</v>
+        <v>7.54697773689036</v>
       </c>
       <c r="D3">
-        <v>5.999392818380348</v>
+        <v>5.133476765151674</v>
       </c>
       <c r="E3">
-        <v>12.41836552109806</v>
+        <v>8.266472853934024</v>
       </c>
       <c r="F3">
-        <v>29.21694017154243</v>
+        <v>21.19973916569486</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.019088439655933</v>
+        <v>10.862634929338</v>
       </c>
       <c r="L3">
-        <v>9.616304712339126</v>
+        <v>6.540097075992005</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.23728306690385</v>
+        <v>17.74491415860069</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.43274874063115</v>
+        <v>12.71207607137477</v>
       </c>
       <c r="C4">
-        <v>9.875864392212126</v>
+        <v>7.569684086065459</v>
       </c>
       <c r="D4">
-        <v>5.977044282430189</v>
+        <v>5.070927302089917</v>
       </c>
       <c r="E4">
-        <v>12.42856340197539</v>
+        <v>8.197695542806807</v>
       </c>
       <c r="F4">
-        <v>29.2479740551413</v>
+        <v>21.03643820174365</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.907323940884739</v>
+        <v>10.45050528611151</v>
       </c>
       <c r="L4">
-        <v>9.609573857461271</v>
+        <v>6.41576215117864</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.28812220415209</v>
+        <v>17.75099431876671</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.37022585299062</v>
+        <v>12.44601584634572</v>
       </c>
       <c r="C5">
-        <v>9.878756095433145</v>
+        <v>7.579234680891219</v>
       </c>
       <c r="D5">
-        <v>5.967822980052128</v>
+        <v>5.045106490991579</v>
       </c>
       <c r="E5">
-        <v>12.43330146478733</v>
+        <v>8.170821549148101</v>
       </c>
       <c r="F5">
-        <v>29.26242262540713</v>
+        <v>20.97413368303597</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.861736647058152</v>
+        <v>10.27764341583667</v>
       </c>
       <c r="L5">
-        <v>9.607249651937085</v>
+        <v>6.365245680455625</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.31018238476189</v>
+        <v>17.75698294230871</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.35985067408367</v>
+        <v>12.40130040733915</v>
       </c>
       <c r="C6">
-        <v>9.879244144952214</v>
+        <v>7.580838507862355</v>
       </c>
       <c r="D6">
-        <v>5.966284977222414</v>
+        <v>5.040799464984599</v>
       </c>
       <c r="E6">
-        <v>12.43412338432641</v>
+        <v>8.166428866871525</v>
       </c>
       <c r="F6">
-        <v>29.2649305295869</v>
+        <v>20.96404250452605</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.854166186231591</v>
+        <v>10.24864493650457</v>
       </c>
       <c r="L6">
-        <v>9.606889068266748</v>
+        <v>6.356868645436413</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.31392648501471</v>
+        <v>17.75818544580892</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.43190514288595</v>
+        <v>12.70852381005564</v>
       </c>
       <c r="C7">
-        <v>9.875902862456835</v>
+        <v>7.569811684541686</v>
       </c>
       <c r="D7">
-        <v>5.976920379149378</v>
+        <v>5.070580392251763</v>
       </c>
       <c r="E7">
-        <v>12.4286249434273</v>
+        <v>8.197328437496848</v>
       </c>
       <c r="F7">
-        <v>29.24816162209694</v>
+        <v>21.03558084337431</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.906709223536961</v>
+        <v>10.44819382653231</v>
       </c>
       <c r="L7">
-        <v>9.609540814374597</v>
+        <v>6.415080163989756</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.28841428200946</v>
+        <v>17.75106104639099</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.75022674738786</v>
+        <v>13.98666485442514</v>
       </c>
       <c r="C8">
-        <v>9.862301521174615</v>
+        <v>7.523766782009352</v>
       </c>
       <c r="D8">
-        <v>6.022843271790866</v>
+        <v>5.199041835948823</v>
       </c>
       <c r="E8">
-        <v>12.40947415838358</v>
+        <v>8.34379573645403</v>
       </c>
       <c r="F8">
-        <v>29.18999297856081</v>
+        <v>21.38864526688388</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.138032400014682</v>
+        <v>11.28544849066731</v>
       </c>
       <c r="L8">
-        <v>9.624911861240317</v>
+        <v>6.673096445013125</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.18763039704677</v>
+        <v>17.75080656153588</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.37008440802265</v>
+        <v>16.21815903806191</v>
       </c>
       <c r="C9">
-        <v>9.839708834549315</v>
+        <v>7.442917434761269</v>
       </c>
       <c r="D9">
-        <v>6.1090986815523</v>
+        <v>5.43926448162861</v>
       </c>
       <c r="E9">
-        <v>12.39029198177737</v>
+        <v>8.666963277371575</v>
       </c>
       <c r="F9">
-        <v>29.13299950006157</v>
+        <v>22.21814652242665</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.585746303022644</v>
+        <v>12.76876081971322</v>
       </c>
       <c r="L9">
-        <v>9.668080173699559</v>
+        <v>7.1788852139772</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.03255931855462</v>
+        <v>17.87127984039753</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.8180048508499</v>
+        <v>17.69372748446534</v>
       </c>
       <c r="C10">
-        <v>9.825571311995041</v>
+        <v>7.389337108665285</v>
       </c>
       <c r="D10">
-        <v>6.170004330189494</v>
+        <v>5.607776734774551</v>
       </c>
       <c r="E10">
-        <v>12.38738541562184</v>
+        <v>8.925771488309705</v>
       </c>
       <c r="F10">
-        <v>29.12603353050478</v>
+        <v>22.91273218088423</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.907714257184464</v>
+        <v>13.76067873763112</v>
       </c>
       <c r="L10">
-        <v>9.707570611229084</v>
+        <v>7.547016064056823</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.94472382462242</v>
+        <v>18.04152522909453</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.01919577135675</v>
+        <v>18.33023546023116</v>
       </c>
       <c r="C11">
-        <v>9.819668870438786</v>
+        <v>7.366243816292384</v>
       </c>
       <c r="D11">
-        <v>6.197145035164593</v>
+        <v>5.68254648597611</v>
       </c>
       <c r="E11">
-        <v>12.38848558316909</v>
+        <v>9.048013052696582</v>
       </c>
       <c r="F11">
-        <v>29.13045217163503</v>
+        <v>23.24735746602661</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.05201181297796</v>
+        <v>14.19064671895587</v>
       </c>
       <c r="L11">
-        <v>9.727183058447169</v>
+        <v>7.71314006557609</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.91045964479219</v>
+        <v>18.13838021292973</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.0949378373146</v>
+        <v>18.56633846421849</v>
       </c>
       <c r="C12">
-        <v>9.817509380484198</v>
+        <v>7.357685069270949</v>
       </c>
       <c r="D12">
-        <v>6.207338519019177</v>
+        <v>5.710576642031445</v>
       </c>
       <c r="E12">
-        <v>12.38924960489022</v>
+        <v>9.0949384587529</v>
       </c>
       <c r="F12">
-        <v>29.13321563444181</v>
+        <v>23.37675642107872</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.10629071537205</v>
+        <v>14.35041541569027</v>
       </c>
       <c r="L12">
-        <v>9.734842849165345</v>
+        <v>7.77581283473055</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.89830531072873</v>
+        <v>18.17797939681379</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.07864634749857</v>
+        <v>18.51570758711748</v>
       </c>
       <c r="C13">
-        <v>9.817971107694808</v>
+        <v>7.359520032801546</v>
       </c>
       <c r="D13">
-        <v>6.20514695471318</v>
+        <v>5.70455263705169</v>
       </c>
       <c r="E13">
-        <v>12.38906962471967</v>
+        <v>9.084804186074408</v>
       </c>
       <c r="F13">
-        <v>29.13257200826791</v>
+        <v>23.34876869522079</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.09461773837186</v>
+        <v>14.31614187245798</v>
       </c>
       <c r="L13">
-        <v>9.733182880733297</v>
+        <v>7.762326174331907</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.900886427631</v>
+        <v>18.16931897745119</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.02543644034156</v>
+        <v>18.34975818884049</v>
       </c>
       <c r="C14">
-        <v>9.819489694322774</v>
+        <v>7.365535939050642</v>
       </c>
       <c r="D14">
-        <v>6.197985360758771</v>
+        <v>5.684858291411985</v>
       </c>
       <c r="E14">
-        <v>12.38854148303577</v>
+        <v>9.051860977400136</v>
       </c>
       <c r="F14">
-        <v>29.1306576817252</v>
+        <v>23.25794941515595</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.05648494053622</v>
+        <v>14.20385206548476</v>
       </c>
       <c r="L14">
-        <v>9.727808588578181</v>
+        <v>7.718301114965216</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.9094432392505</v>
+        <v>18.14157875372123</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.99278378964655</v>
+        <v>18.247469524316</v>
       </c>
       <c r="C15">
-        <v>9.820429710714436</v>
+        <v>7.369245166643569</v>
       </c>
       <c r="D15">
-        <v>6.193587641825768</v>
+        <v>5.672757672438835</v>
       </c>
       <c r="E15">
-        <v>12.3882631935186</v>
+        <v>9.031764649160499</v>
       </c>
       <c r="F15">
-        <v>29.1296270401059</v>
+        <v>23.20266945661399</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.03307868520305</v>
+        <v>14.1346743269441</v>
       </c>
       <c r="L15">
-        <v>9.72454689739161</v>
+        <v>7.691302783051484</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.91479148279306</v>
+        <v>18.12497147748503</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.80479832256583</v>
+        <v>17.65143682951771</v>
       </c>
       <c r="C16">
-        <v>9.825967656502433</v>
+        <v>7.390872246387283</v>
       </c>
       <c r="D16">
-        <v>6.168219001733163</v>
+        <v>5.602851314372574</v>
       </c>
       <c r="E16">
-        <v>12.38736218720226</v>
+        <v>8.917872303702454</v>
       </c>
       <c r="F16">
-        <v>29.12589738847691</v>
+        <v>22.89123917643349</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.898235962035061</v>
+        <v>13.73215187131877</v>
       </c>
       <c r="L16">
-        <v>9.706321718239069</v>
+        <v>7.536128754854439</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.94707780981781</v>
+        <v>18.03559738733736</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.68876229890591</v>
+        <v>17.27693986368758</v>
       </c>
       <c r="C17">
-        <v>9.829500154551701</v>
+        <v>7.404469119044363</v>
       </c>
       <c r="D17">
-        <v>6.152509313564289</v>
+        <v>5.559473639660983</v>
       </c>
       <c r="E17">
-        <v>12.38742928499016</v>
+        <v>8.849148303700151</v>
       </c>
       <c r="F17">
-        <v>29.12555237403577</v>
+        <v>22.70496656748008</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.814921382407844</v>
+        <v>13.47977410145228</v>
       </c>
       <c r="L17">
-        <v>9.695560499610636</v>
+        <v>7.440559219114132</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.96834405177636</v>
+        <v>17.98583488878752</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.62178372926182</v>
+        <v>17.05826555657182</v>
       </c>
       <c r="C18">
-        <v>9.831581749868404</v>
+        <v>7.412410084963517</v>
       </c>
       <c r="D18">
-        <v>6.143420445675778</v>
+        <v>5.534346957169689</v>
       </c>
       <c r="E18">
-        <v>12.3876959514934</v>
+        <v>8.810045215655315</v>
       </c>
       <c r="F18">
-        <v>29.126068207269</v>
+        <v>22.59958360053668</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.766799947874876</v>
+        <v>13.33261103611064</v>
       </c>
       <c r="L18">
-        <v>9.689526309928615</v>
+        <v>7.385466075967758</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.98111153046122</v>
+        <v>17.95903207936357</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.59906746308127</v>
+        <v>16.9836619770617</v>
       </c>
       <c r="C19">
-        <v>9.832295107098227</v>
+        <v>7.41511938211947</v>
       </c>
       <c r="D19">
-        <v>6.140334081574568</v>
+        <v>5.525809484511513</v>
       </c>
       <c r="E19">
-        <v>12.38782543691008</v>
+        <v>8.796879006056901</v>
       </c>
       <c r="F19">
-        <v>29.12636554911616</v>
+        <v>22.5642042661336</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.750473948707242</v>
+        <v>13.28244023145724</v>
       </c>
       <c r="L19">
-        <v>9.687510041166867</v>
+        <v>7.366792560661831</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.98552631679534</v>
+        <v>17.95026551854055</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.70113969140317</v>
+        <v>17.31714403350249</v>
       </c>
       <c r="C20">
-        <v>9.829118963345872</v>
+        <v>7.403009233594665</v>
       </c>
       <c r="D20">
-        <v>6.154187149570886</v>
+        <v>5.56410967668816</v>
       </c>
       <c r="E20">
-        <v>12.38739854360723</v>
+        <v>8.856420187069199</v>
       </c>
       <c r="F20">
-        <v>29.12551517990302</v>
+        <v>22.72461383664192</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.82381155905215</v>
+        <v>13.50684732854004</v>
       </c>
       <c r="L20">
-        <v>9.696689996785421</v>
+        <v>7.450745925470738</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.9660247648184</v>
+        <v>17.99094294420877</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.04107812107484</v>
+        <v>18.39863477595704</v>
       </c>
       <c r="C21">
-        <v>9.819041599053712</v>
+        <v>7.363763851086075</v>
       </c>
       <c r="D21">
-        <v>6.200091199276782</v>
+        <v>5.690650783839506</v>
       </c>
       <c r="E21">
-        <v>12.38868719073213</v>
+        <v>9.061520059666348</v>
       </c>
       <c r="F21">
-        <v>29.13119038868037</v>
+        <v>23.28455241069599</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.06769572874912</v>
+        <v>14.2369170139313</v>
       </c>
       <c r="L21">
-        <v>9.729380858575448</v>
+        <v>7.731239016638799</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.90690760450057</v>
+        <v>18.14964638902464</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.26062459286737</v>
+        <v>19.07675535332709</v>
       </c>
       <c r="C22">
-        <v>9.812896142730164</v>
+        <v>7.339201082426648</v>
       </c>
       <c r="D22">
-        <v>6.229600615043426</v>
+        <v>5.771695303747483</v>
       </c>
       <c r="E22">
-        <v>12.39155381044264</v>
+        <v>9.199261442163841</v>
       </c>
       <c r="F22">
-        <v>29.14125309031472</v>
+        <v>23.66614609988425</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.2249478748012</v>
+        <v>14.69628530733572</v>
       </c>
       <c r="L22">
-        <v>9.752102189512163</v>
+        <v>7.913174091765272</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.87305605276004</v>
+        <v>18.27046036923467</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.14371213556313</v>
+        <v>18.71743286566848</v>
       </c>
       <c r="C23">
-        <v>9.816135897803173</v>
+        <v>7.352210548083248</v>
       </c>
       <c r="D23">
-        <v>6.213896769724679</v>
+        <v>5.72859567730686</v>
       </c>
       <c r="E23">
-        <v>12.38983896413577</v>
+        <v>9.125412180931685</v>
       </c>
       <c r="F23">
-        <v>29.1353015856689</v>
+        <v>23.46105135306933</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.14123157447197</v>
+        <v>14.45273411012616</v>
       </c>
       <c r="L23">
-        <v>9.739852706195693</v>
+        <v>7.816210689559712</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.89068477361488</v>
+        <v>18.20437319344812</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.69554470099804</v>
+        <v>17.29897823326144</v>
       </c>
       <c r="C24">
-        <v>9.82929114188345</v>
+        <v>7.403668861902288</v>
       </c>
       <c r="D24">
-        <v>6.153428777730584</v>
+        <v>5.562014309863239</v>
       </c>
       <c r="E24">
-        <v>12.38741173124351</v>
+        <v>8.85313129908115</v>
       </c>
       <c r="F24">
-        <v>29.12552977065055</v>
+        <v>22.71572598743236</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.81979300010665</v>
+        <v>13.49461396346716</v>
       </c>
       <c r="L24">
-        <v>9.696178875552166</v>
+        <v>7.446140976189458</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.96707162868305</v>
+        <v>17.98862797606645</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.20337514140248</v>
+        <v>15.64353785250816</v>
       </c>
       <c r="C25">
-        <v>9.845386682832444</v>
+        <v>7.463772649739655</v>
       </c>
       <c r="D25">
-        <v>6.086186615065092</v>
+        <v>5.375621586012311</v>
       </c>
       <c r="E25">
-        <v>12.3935150547932</v>
+        <v>8.575738576369094</v>
       </c>
       <c r="F25">
-        <v>29.14229270086278</v>
+        <v>21.97886360332701</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.465617528423079</v>
+        <v>12.38462993501345</v>
       </c>
       <c r="L25">
-        <v>9.655023561689372</v>
+        <v>7.042443458540188</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.069937481368</v>
+        <v>17.82490434307784</v>
       </c>
     </row>
   </sheetData>
